--- a/sample_structures.xlsx
+++ b/sample_structures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\3dmol.pbiviz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CB270E-6D83-4EAD-A569-623F181F2B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B19E40-F6CF-4DBE-B019-50C4F47FEB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{39FA5FB8-A442-4F7D-8F77-B12F9AFDB4EE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>pdb_id</t>
   </si>
@@ -1644,6 +1644,457 @@
   <si>
     <t>Crystal structure of Streptococcus pyogenes Cas9 in complex with guide RNA and target DNA</t>
   </si>
+  <si>
+    <t xml:space="preserve">ATOM      1  N   MET A   1       0.000   0.000   0.000  1.00  0.00           N  
+ATOM      2  CA  MET A   1       1.458   0.000   0.000  1.00  0.00           C  
+ATOM      3  C   MET A   1       2.009   1.420   0.000  1.00  0.00           C  
+ATOM      4  O   MET A   1       1.251   2.390   0.000  1.00  0.00           O  
+ATOM      5  CB  MET A   1       1.989  -0.744   1.232  1.00  0.00           C  
+ATOM      6  CG  MET A   1       1.515  -2.192   1.281  1.00  0.00           C  
+ATOM      7  SD  MET A   1       2.172  -3.069   2.707  1.00  0.00           S  
+ATOM      8  CE  MET A   1       1.355  -4.660   2.486  1.00  0.00           C  </t>
+  </si>
+  <si>
+    <t>Small example peptide</t>
+  </si>
+  <si>
+    <t>sample_1</t>
+  </si>
+  <si>
+    <t>ATOM      1  N   ALA A   1      -8.901   4.127  -0.555  1.00  0.00           N
+ATOM      2  CA  ALA A   1      -8.608   3.135  -1.618  1.00  0.00           C
+ATOM      3  C   ALA A   1      -7.117   2.964  -1.897  1.00  0.00           C
+ATOM      4  O   ALA A   1      -6.634   1.849  -1.758  1.00  0.00           O
+ATOM      5  CB  ALA A   1      -9.437   3.396  -2.889  1.00  0.00           C
+ATOM      6  N   GLU A   2      -6.379   4.025  -2.228  1.00  0.00           N
+ATOM      7  CA  GLU A   2      -4.923   4.003  -2.478  1.00  0.00           C
+ATOM      8  C   GLU A   2      -4.197   3.533  -1.227  1.00  0.00           C
+ATOM      9  O   GLU A   2      -4.661   3.769  -0.112  1.00  0.00           O
+ATOM     10  CB  GLU A   2      -4.490   5.385  -2.957  1.00  0.00           C
+ATOM     11  CG  GLU A   2      -5.027   5.779  -4.322  1.00  0.00           C
+ATOM     12  CD  GLU A   2      -4.554   7.147  -4.765  1.00  0.00           C
+ATOM     13  OE1 GLU A   2      -3.356   7.330  -5.089  1.00  0.00           O
+ATOM     14  OE2 GLU A   2      -5.383   8.086  -4.791  1.00  0.00           O</t>
+  </si>
+  <si>
+    <t>Small example alpha helix</t>
+  </si>
+  <si>
+    <t>sample_2</t>
+  </si>
+  <si>
+    <t>ATOM      1  N   PRO A  34       3.250 -56.187   6.501  1.00 97.20           N  
+ATOM      2  CA  PRO A  34       4.161 -55.157   5.992  1.00 95.69           C  
+ATOM      3  C   PRO A  34       5.323 -55.750   5.202  1.00 95.86           C  
+ATOM      4  O   PRO A  34       5.670 -56.912   5.418  1.00 96.22           O  
+ATOM      5  CB  PRO A  34       4.662 -54.477   7.269  1.00 93.74           C  
+ATOM      6  CG  PRO A  34       4.593 -55.547   8.301  1.00 91.75           C  
+ATOM      7  CD  PRO A  34       3.377 -56.364   7.959  1.00 90.64           C  
+ATOM      8  N   PRO A  35       5.912 -54.968   4.298  1.00 94.64           N  
+ATOM      9  CA  PRO A  35       7.089 -55.445   3.561  1.00 96.08           C  
+ATOM     10  C   PRO A  35       8.252 -55.724   4.502  1.00 98.97           C  
+ATOM     11  O   PRO A  35       8.231 -55.400   5.691  1.00 96.62           O  
+ATOM     12  CB  PRO A  35       7.403 -54.297   2.595  1.00 94.39           C  
+ATOM     13  CG  PRO A  35       6.711 -53.102   3.169  1.00 93.77           C  
+ATOM     14  CD  PRO A  35       5.492 -53.626   3.862  1.00 98.24           C  
+ATOM     15  N   THR A  36       9.296 -56.337   3.946  1.00105.35           N  
+ATOM     16  CA  THR A  36      10.424 -56.796   4.749  1.00 99.18           C  
+ATOM     17  C   THR A  36      11.492 -55.721   4.922  1.00 96.24           C  
+ATOM     18  O   THR A  36      11.914 -55.441   6.048  1.00 91.30           O  
+ATOM     19  CB  THR A  36      11.050 -58.042   4.116  1.00 97.44           C  
+ATOM     20  OG1 THR A  36      12.043 -57.647   3.164  1.00107.26           O  
+ATOM     21  CG2 THR A  36       9.988 -58.865   3.406  1.00 94.78           C  
+ATOM     22  N   PHE A  37      11.929 -55.118   3.815  1.00 90.24           N  
+ATOM     23  CA  PHE A  37      13.078 -54.217   3.781  1.00 84.18           C  
+ATOM     24  C   PHE A  37      14.323 -54.926   4.303  1.00 82.31           C  
+ATOM     25  O   PHE A  37      14.622 -54.885   5.501  1.00 83.48           O  
+ATOM     26  CB  PHE A  37      12.801 -52.932   4.570  1.00 83.81           C  
+ATOM     27  CG  PHE A  37      13.647 -51.766   4.140  1.00 80.67           C  
+ATOM     28  CD1 PHE A  37      13.872 -51.520   2.796  1.00 77.08           C  
+ATOM     29  CD2 PHE A  37      14.202 -50.908   5.073  1.00 74.27           C  
+ATOM     30  CE1 PHE A  37      14.642 -50.448   2.392  1.00 70.47           C  
+ATOM     31  CE2 PHE A  37      14.981 -49.836   4.672  1.00 70.07           C  
+ATOM     32  CZ  PHE A  37      15.199 -49.605   3.330  1.00 67.38           C  
+ATOM     33  N   SER A  38      15.045 -55.584   3.400  1.00 83.06           N  
+ATOM     34  CA  SER A  38      16.244 -56.349   3.728  1.00 79.09           C  
+ATOM     35  C   SER A  38      17.452 -55.764   3.006  1.00 74.54           C  
+ATOM     36  O   SER A  38      17.295 -55.167   1.943  1.00 79.14           O  
+ATOM     37  CB  SER A  38      16.053 -57.818   3.343  1.00 77.90           C  
+ATOM     38  OG  SER A  38      17.284 -58.431   3.003  1.00 74.22           O  
+ATOM     39  N   PRO A  39      18.667 -55.930   3.563  1.00 73.22           N  
+ATOM     40  CA  PRO A  39      19.128 -56.582   4.800  1.00 75.19           C  
+ATOM     41  C   PRO A  39      18.800 -55.772   6.037  1.00 74.83           C  
+ATOM     42  O   PRO A  39      18.481 -54.615   5.871  1.00 70.83           O  
+ATOM     43  CB  PRO A  39      20.644 -56.640   4.619  1.00 73.37           C  
+ATOM     44  CG  PRO A  39      20.944 -55.497   3.718  1.00 70.27           C  
+ATOM     45  CD  PRO A  39      19.799 -55.431   2.764  1.00 71.42           C  
+ATOM     46  N   ALA A  40      18.920 -56.343   7.239  1.00 70.47           N  
+ATOM     47  CA  ALA A  40      18.703 -55.574   8.461  1.00 71.51           C  
+ATOM     48  C   ALA A  40      19.801 -54.547   8.718  1.00 70.99           C  
+ATOM     49  O   ALA A  40      19.600 -53.644   9.540  1.00 69.39           O  
+ATOM     50  CB  ALA A  40      18.581 -56.516   9.659  1.00 71.18           C  
+ATOM     51  N   LEU A  41      20.949 -54.673   8.052  1.00 69.03           N  
+ATOM     52  CA  LEU A  41      22.035 -53.703   8.100  1.00 70.71           C  
+ATOM     53  C   LEU A  41      22.996 -54.020   6.963  1.00 69.08           C  
+ATOM     54  O   LEU A  41      23.282 -55.190   6.702  1.00 68.70           O  
+ATOM     55  CB  LEU A  41      22.772 -53.726   9.449  1.00 69.64           C  
+ATOM     56  CG  LEU A  41      24.226 -53.242   9.487  1.00 68.80           C  
+ATOM     57  CD1 LEU A  41      24.328 -51.751   9.226  1.00 84.84           C  
+ATOM     58  CD2 LEU A  41      24.870 -53.577  10.819  1.00 66.80           C  
+ATOM     59  N   LEU A  42      23.481 -52.977   6.292  1.00 67.99           N  
+ATOM     60  CA  LEU A  42      24.358 -53.120   5.138  1.00 69.15           C  
+ATOM     61  C   LEU A  42      25.557 -52.200   5.310  1.00 72.66           C  
+ATOM     62  O   LEU A  42      25.396 -51.028   5.654  1.00 70.54           O  
+ATOM     63  CB  LEU A  42      23.606 -52.787   3.844  1.00 69.54           C  
+ATOM     64  CG  LEU A  42      24.278 -53.093   2.505  1.00 68.51           C  
+ATOM     65  CD1 LEU A  42      24.006 -54.525   2.081  1.00 67.02           C  
+ATOM     66  CD2 LEU A  42      23.787 -52.130   1.447  1.00 66.82           C  
+ATOM     67  N   VAL A  43      26.756 -52.723   5.079  1.00 73.99           N  
+ATOM     68  CA  VAL A  43      27.984 -51.947   5.208  1.00 75.32           C  
+ATOM     69  C   VAL A  43      28.755 -52.043   3.899  1.00 81.17           C  
+ATOM     70  O   VAL A  43      29.004 -53.146   3.399  1.00 76.30           O  
+ATOM     71  CB  VAL A  43      28.838 -52.421   6.399  1.00 75.26           C  
+ATOM     72  CG1 VAL A  43      28.265 -51.885   7.701  1.00 74.71           C  
+ATOM     73  CG2 VAL A  43      28.895 -53.937   6.446  1.00 79.57           C  
+ATOM     74  N   VAL A  44      29.117 -50.887   3.338  1.00 84.35           N  
+ATOM     75  CA  VAL A  44      29.784 -50.810   2.043  1.00 76.11           C  
+ATOM     76  C   VAL A  44      30.915 -49.792   2.118  1.00 78.68           C  
+ATOM     77  O   VAL A  44      31.019 -49.005   3.061  1.00 77.51           O  
+ATOM     78  CB  VAL A  44      28.815 -50.433   0.900  1.00 75.29           C  
+ATOM     79  CG1 VAL A  44      27.681 -51.442   0.792  1.00 76.21           C  
+ATOM     80  CG2 VAL A  44      28.274 -49.025   1.103  1.00 77.27           C  
+ATOM     81  N   THR A  45      31.763 -49.814   1.095  1.00 89.35           N  
+ATOM     82  CA  THR A  45      32.851 -48.861   0.952  1.00 80.13           C  
+ATOM     83  C   THR A  45      32.387 -47.638   0.167  1.00 80.59           C  
+ATOM     84  O   THR A  45      31.405 -47.685  -0.578  1.00 79.55           O  
+ATOM     85  CB  THR A  45      34.051 -49.508   0.258  1.00 81.33           C  
+ATOM     86  OG1 THR A  45      33.624 -50.132  -0.961  1.00 87.07           O  
+ATOM     87  CG2 THR A  45      34.692 -50.554   1.159  1.00 79.95           C  
+ATOM     88  N   GLU A  46      33.102 -46.529   0.358  1.00 79.80           N  
+ATOM     89  CA  GLU A  46      32.806 -45.319  -0.398  1.00 78.85           C  
+ATOM     90  C   GLU A  46      32.900 -45.592  -1.894  1.00 73.25           C  
+ATOM     91  O   GLU A  46      33.736 -46.372  -2.357  1.00 83.43           O  
+ATOM     92  CB  GLU A  46      33.762 -44.188  -0.014  1.00 78.27           C  
+ATOM     93  CG  GLU A  46      33.339 -43.395   1.212  1.00 77.86           C  
+ATOM     94  CD  GLU A  46      34.135 -42.117   1.385  1.00 78.96           C  
+ATOM     95  OE1 GLU A  46      35.256 -42.036   0.841  1.00 78.29           O  
+ATOM     96  OE2 GLU A  46      33.642 -41.193   2.066  1.00 77.80           O  
+ATOM     97  N   GLY A  47      32.019 -44.942  -2.653  1.00 72.13           N  
+ATOM     98  CA  GLY A  47      31.939 -45.155  -4.080  1.00 78.73           C  
+ATOM     99  C   GLY A  47      31.315 -46.463  -4.505  1.00 80.02           C  
+ATOM    100  O   GLY A  47      31.093 -46.660  -5.706  1.00 77.89           O  
+ATOM    101  N   ASP A  48      31.024 -47.366  -3.574  1.00 80.40           N  
+ATOM    102  CA  ASP A  48      30.396 -48.641  -3.884  1.00 85.26           C  
+ATOM    103  C   ASP A  48      28.892 -48.537  -3.680  1.00 84.58           C  
+ATOM    104  O   ASP A  48      28.426 -47.969  -2.687  1.00 92.89           O  
+ATOM    105  CB  ASP A  48      30.968 -49.762  -3.015  1.00105.37           C  
+ATOM    106  N   ASN A  49      28.138 -49.088  -4.626  1.00 86.69           N  
+ATOM    107  CA  ASN A  49      26.688 -49.026  -4.562  1.00 85.99           C  
+ATOM    108  C   ASN A  49      26.162 -49.829  -3.377  1.00 86.71           C  
+ATOM    109  O   ASN A  49      26.809 -50.751  -2.871  1.00 95.44           O  
+ATOM    110  CB  ASN A  49      26.071 -49.544  -5.860  1.00 87.67           C  
+ATOM    111  CG  ASN A  49      26.699 -50.841  -6.324  1.00100.02           C  
+ATOM    112  OD1 ASN A  49      27.506 -51.443  -5.615  1.00108.67           O  
+ATOM    113  ND2 ASN A  49      26.329 -51.283  -7.520  1.00 99.79           N  
+ATOM    114  N   ALA A  50      24.963 -49.461  -2.937  1.00 81.25           N  
+ATOM    115  CA  ALA A  50      24.299 -50.110  -1.820  1.00 72.64           C  
+ATOM    116  C   ALA A  50      22.827 -50.260  -2.161  1.00 72.32           C  
+ATOM    117  O   ALA A  50      22.205 -49.319  -2.664  1.00 73.18           O  
+ATOM    118  CB  ALA A  50      24.469 -49.303  -0.532  1.00 75.10           C  
+ATOM    119  N   THR A  51      22.270 -51.439  -1.897  1.00 72.39           N  
+ATOM    120  CA  THR A  51      20.885 -51.691  -2.264  1.00 75.75           C  
+ATOM    121  C   THR A  51      20.171 -52.494  -1.188  1.00 73.32           C  
+ATOM    122  O   THR A  51      20.707 -53.474  -0.665  1.00 73.22           O  
+ATOM    123  CB  THR A  51      20.780 -52.418  -3.615  1.00 86.81           C  
+ATOM    124  OG1 THR A  51      19.431 -52.845  -3.822  1.00 95.43           O  
+ATOM    125  CG2 THR A  51      21.700 -53.620  -3.660  1.00 82.43           C  
+ATOM    126  N   PHE A  52      18.959 -52.055  -0.861  1.00 75.14           N  
+ATOM    127  CA  PHE A  52      18.050 -52.780   0.009  1.00 73.61           C  
+ATOM    128  C   PHE A  52      16.961 -53.439  -0.835  1.00 76.71           C  
+ATOM    129  O   PHE A  52      16.950 -53.346  -2.064  1.00 81.20           O  
+ATOM    130  CB  PHE A  52      17.445 -51.846   1.059  1.00 74.33           C  
+ATOM    131  CG  PHE A  52      18.450 -51.267   2.015  1.00 68.58           C  
+ATOM    132  CD1 PHE A  52      18.780 -51.934   3.183  1.00 69.07           C  
+ATOM    133  CD2 PHE A  52      19.056 -50.051   1.749  1.00 65.54           C  
+ATOM    134  CE1 PHE A  52      19.701 -51.401   4.065  1.00 69.14           C  
+ATOM    135  CE2 PHE A  52      19.977 -49.513   2.627  1.00 67.14           C  
+ATOM    136  CZ  PHE A  52      20.300 -50.189   3.787  1.00 69.01           C  
+ATOM    137  N   THR A  53      16.024 -54.109  -0.164  1.00 76.47           N  
+ATOM    138  CA  THR A  53      14.948 -54.827  -0.850  1.00 78.55           C  
+ATOM    139  C   THR A  53      13.664 -54.676  -0.040  1.00 81.74           C  
+ATOM    140  O   THR A  53      13.409 -55.458   0.880  1.00 87.07           O  
+ATOM    141  CB  THR A  53      15.304 -56.296  -1.050  1.00 80.52           C  
+ATOM    142  OG1 THR A  53      16.653 -56.404  -1.518  1.00 79.35           O  
+ATOM    143  CG2 THR A  53      14.371 -56.937  -2.069  1.00 82.56           C  
+ATOM    144  N   CYS A  54      12.857 -53.679  -0.392  1.00 80.85           N  
+ATOM    145  CA  CYS A  54      11.575 -53.453   0.270  1.00 82.08           C  
+ATOM    146  C   CYS A  54      10.476 -54.280  -0.390  1.00 86.37           C  
+ATOM    147  O   CYS A  54      10.695 -54.903  -1.430  1.00 87.66           O  
+ATOM    148  CB  CYS A  54      11.207 -51.967   0.240  1.00 81.88           C  
+ATOM    149  SG  CYS A  54       9.773 -51.500   1.250  1.00 80.07           S  
+ATOM    150  N   VAL A  64       1.791 -46.838  -3.610  1.00 60.20           N  
+ATOM    151  CA  VAL A  64       3.047 -46.109  -3.733  1.00 66.18           C  
+ATOM    152  C   VAL A  64       4.041 -46.641  -2.702  1.00 65.38           C  
+ATOM    153  O   VAL A  64       3.648 -47.102  -1.630  1.00 77.87           O  
+ATOM    154  CB  VAL A  64       2.816 -44.585  -3.586  1.00 69.04           C  
+ATOM    155  CG1 VAL A  64       4.133 -43.822  -3.514  1.00 68.42           C  
+ATOM    156  CG2 VAL A  64       1.976 -44.069  -4.743  1.00 66.41           C  
+ATOM    157  N   LEU A  65       5.328 -46.601  -3.043  1.00 65.70           N  
+ATOM    158  CA  LEU A  65       6.394 -47.070  -2.168  1.00 69.98           C  
+ATOM    159  C   LEU A  65       7.397 -45.945  -1.972  1.00 65.92           C  
+ATOM    160  O   LEU A  65       7.941 -45.421  -2.949  1.00 72.01           O  
+ATOM    161  CB  LEU A  65       7.075 -48.308  -2.756  1.00 71.00           C  
+ATOM    162  CG  LEU A  65       8.056 -49.028  -1.833  1.00 80.11           C  
+ATOM    163  CD1 LEU A  65       7.761 -50.517  -1.800  1.00 80.82           C  
+ATOM    164  CD2 LEU A  65       9.486 -48.770  -2.274  1.00 74.49           C  
+ATOM    165  N   ASN A  66       7.643 -45.576  -0.718  1.00 59.37           N  
+ATOM    166  CA  ASN A  66       8.567 -44.504  -0.385  1.00 56.31           C  
+ATOM    167  C   ASN A  66       9.789 -45.054   0.341  1.00 53.67           C  
+ATOM    168  O   ASN A  66       9.767 -46.149   0.909  1.00 55.68           O  
+ATOM    169  CB  ASN A  66       7.885 -43.434   0.472  1.00 56.81           C  
+ATOM    170  CG  ASN A  66       6.839 -42.654  -0.296  1.00 70.10           C  
+ATOM    171  OD1 ASN A  66       6.734 -42.769  -1.517  1.00 60.04           O  
+ATOM    172  ND2 ASN A  66       6.062 -41.849   0.415  1.00 57.46           N  
+ATOM    173  N   TRP A  67      10.861 -44.265   0.316  1.00 49.26           N  
+ATOM    174  CA  TRP A  67      12.159 -44.654   0.865  1.00 49.82           C  
+ATOM    175  C   TRP A  67      12.704 -43.467   1.653  1.00 48.71           C  
+ATOM    176  O   TRP A  67      13.168 -42.487   1.064  1.00 48.23           O  
+ATOM    177  CB  TRP A  67      13.112 -45.069  -0.252  1.00 50.86           C  
+ATOM    178  CG  TRP A  67      14.454 -45.539   0.217  1.00 50.68           C  
+ATOM    179  CD1 TRP A  67      14.776 -45.999   1.459  1.00 61.05           C  
+ATOM    180  CD2 TRP A  67      15.660 -45.586  -0.555  1.00 52.67           C  
+ATOM    181  NE1 TRP A  67      16.108 -46.335   1.508  1.00 52.95           N  
+ATOM    182  CE2 TRP A  67      16.673 -46.089   0.284  1.00 52.94           C  
+ATOM    183  CE3 TRP A  67      15.980 -45.252  -1.874  1.00 59.10           C  
+ATOM    184  CZ2 TRP A  67      17.983 -46.267  -0.153  1.00 57.09           C  
+ATOM    185  CZ3 TRP A  67      17.282 -45.430  -2.306  1.00 60.31           C  
+ATOM    186  CH2 TRP A  67      18.267 -45.933  -1.448  1.00 57.71           C  
+ATOM    187  N   TYR A  68      12.652 -43.551   2.979  1.00 49.78           N  
+ATOM    188  CA  TYR A  68      13.071 -42.453   3.836  1.00 48.06           C  
+ATOM    189  C   TYR A  68      14.409 -42.744   4.500  1.00 47.18           C  
+ATOM    190  O   TYR A  68      14.818 -43.896   4.665  1.00 47.05           O  
+ATOM    191  CB  TYR A  68      12.043 -42.167   4.937  1.00 49.09           C  
+ATOM    192  CG  TYR A  68      10.599 -42.292   4.528  1.00 47.85           C  
+ATOM    193  CD1 TYR A  68       9.826 -43.353   4.975  1.00 51.41           C  
+ATOM    194  CD2 TYR A  68      10.003 -41.341   3.713  1.00 49.46           C  
+ATOM    195  CE1 TYR A  68       8.502 -43.471   4.615  1.00 52.05           C  
+ATOM    196  CE2 TYR A  68       8.678 -41.451   3.346  1.00 51.56           C  
+ATOM    197  CZ  TYR A  68       7.932 -42.518   3.801  1.00 51.40           C  
+ATOM    198  OH  TYR A  68       6.611 -42.634   3.439  1.00 66.30           O  
+ATOM    199  N   ARG A  69      15.082 -41.664   4.882  1.00 50.81           N  
+ATOM    200  CA  ARG A  69      16.157 -41.691   5.861  1.00 57.08           C  
+ATOM    201  C   ARG A  69      15.670 -40.975   7.115  1.00 61.49           C  
+ATOM    202  O   ARG A  69      14.981 -39.956   7.023  1.00 58.48           O  
+ATOM    203  CB  ARG A  69      17.423 -41.019   5.327  1.00 59.42           C  
+ATOM    204  CG  ARG A  69      18.635 -41.197   6.227  1.00 59.95           C  
+ATOM    205  CD  ARG A  69      19.338 -39.878   6.490  1.00 58.58           C  
+ATOM    206  NE  ARG A  69      20.532 -40.051   7.311  1.00 62.89           N  
+ATOM    207  CZ  ARG A  69      21.774 -39.986   6.843  1.00 69.43           C  
+ATOM    208  NH1 ARG A  69      21.987 -39.745   5.557  1.00 69.89           N  
+ATOM    209  NH2 ARG A  69      22.804 -40.157   7.661  1.00 81.24           N  
+ATOM    210  N   MET A  70      16.008 -41.506   8.285  1.00 66.91           N  
+ATOM    211  CA  MET A  70      15.519 -40.957   9.543  1.00 68.76           C  
+ATOM    212  C   MET A  70      16.575 -40.070  10.183  1.00 67.86           C  
+ATOM    213  O   MET A  70      17.733 -40.469  10.322  1.00 67.30           O  
+ATOM    214  CB  MET A  70      15.095 -42.069  10.502  1.00 72.11           C  
+ATOM    215  CG  MET A  70      13.776 -42.709  10.120  1.00 73.65           C  
+ATOM    216  SD  MET A  70      12.550 -42.751  11.443  1.00130.91           S  
+ATOM    217  CE  MET A  70      13.231 -44.014  12.505  1.00 89.00           C  
+ATOM    218  N   SER A  71      16.164 -38.872  10.560  1.00 72.38           N  
+ATOM    219  CA  SER A  71      17.004 -37.830  11.146  1.00 77.59           C  
+ATOM    220  C   SER A  71      16.488 -37.717  12.591  1.00 80.91           C  
+ATOM    221  O   SER A  71      15.838 -38.679  13.014  1.00 87.13           O  
+ATOM    222  CB  SER A  71      16.902 -36.569  10.291  1.00 77.99           C  
+ATOM    223  OG  SER A  71      18.102 -35.819  10.357  1.00 87.22           O  
+ATOM    224  N   PRO A  72      16.699 -36.666  13.407  1.00 82.08           N  
+ATOM    225  CA  PRO A  72      16.344 -36.799  14.818  1.00 82.46           C  
+ATOM    226  C   PRO A  72      14.856 -36.557  15.015  1.00 82.91           C  
+ATOM    227  O   PRO A  72      14.086 -36.460  14.061  1.00 83.53           O  
+ATOM    228  CB  PRO A  72      17.185 -35.731  15.486  1.00 90.22           C  
+ATOM    229  CG  PRO A  72      17.292 -34.669  14.528  1.00 91.16           C  
+ATOM    230  CD  PRO A  72      16.971 -35.242  13.142  1.00 88.90           C  
+ATOM    231  N   SER A  73      14.466 -36.542  16.287  1.00 81.96           N  
+ATOM    232  CA  SER A  73      13.186 -36.009  16.758  1.00 79.13           C  
+ATOM    233  C   SER A  73      12.062 -36.218  15.743  1.00 77.33           C  
+ATOM    234  O   SER A  73      11.305 -35.302  15.402  1.00 78.78           O  
+ATOM    235  CB  SER A  73      13.330 -34.534  17.115  1.00 77.52           C  
+ATOM    236  OG  SER A  73      14.168 -33.894  16.169  1.00 92.44           O  
+ATOM    237  N   ASN A  74      11.988 -37.446  15.224  1.00 80.38           N  
+ATOM    238  CA  ASN A  74      10.991 -37.841  14.228  1.00 81.38           C  
+ATOM    239  C   ASN A  74      11.076 -37.007  12.950  1.00 77.43           C  
+ATOM    240  O   ASN A  74      10.061 -36.766  12.296  1.00 76.57           O  
+ATOM    241  CB  ASN A  74       9.577 -37.780  14.810  1.00 84.18           C  
+ATOM    242  CG  ASN A  74       8.878 -39.119  14.783  1.00 90.27           C  
+ATOM    243  OD1 ASN A  74       9.511 -40.171  14.859  1.00 90.49           O  
+ATOM    244  ND2 ASN A  74       7.556 -39.086  14.666  1.00 97.71           N  
+ATOM    245  N   GLN A  75      12.274 -36.558  12.574  1.00 79.40           N  
+ATOM    246  CA  GLN A  75      12.463 -35.904  11.282  1.00 72.85           C  
+ATOM    247  C   GLN A  75      12.707 -36.969  10.220  1.00 69.24           C  
+ATOM    248  O   GLN A  75      13.628 -37.782  10.351  1.00 69.27           O  
+ATOM    249  CB  GLN A  75      13.627 -34.915  11.325  1.00 73.83           C  
+ATOM    250  CG  GLN A  75      13.673 -33.957  10.136  1.00 72.78           C  
+ATOM    251  CD  GLN A  75      14.917 -33.085  10.122  1.00 75.94           C  
+ATOM    252  OE1 GLN A  75      15.888 -33.354  10.828  1.00 74.62           O  
+ATOM    253  NE2 GLN A  75      14.889 -32.029   9.318  1.00 68.07           N  
+ATOM    254  N   THR A  76      11.883 -36.971   9.175  1.00 68.24           N  
+ATOM    255  CA  THR A  76      11.994 -37.961   8.112  1.00 64.98           C  
+ATOM    256  C   THR A  76      11.901 -37.261   6.765  1.00 63.08           C  
+ATOM    257  O   THR A  76      11.060 -36.378   6.574  1.00 65.97           O  
+ATOM    258  CB  THR A  76      10.909 -39.044   8.245  1.00 53.61           C  
+ATOM    259  OG1 THR A  76      11.022 -39.982   7.168  1.00 54.82           O  
+ATOM    260  CG2 THR A  76       9.514 -38.433   8.254  1.00 57.86           C  
+ATOM    261  N   ASP A  77      12.782 -37.641   5.843  1.00 59.30           N  
+ATOM    262  CA  ASP A  77      12.811 -37.070   4.504  1.00 57.08           C  
+ATOM    263  C   ASP A  77      12.776 -38.197   3.486  1.00 52.03           C  
+ATOM    264  O   ASP A  77      13.535 -39.165   3.600  1.00 50.68           O  
+ATOM    265  CB  ASP A  77      14.055 -36.200   4.288  1.00 62.16           C  
+ATOM    266  CG  ASP A  77      14.974 -36.185   5.492  1.00 75.38           C  
+ATOM    267  OD1 ASP A  77      14.946 -35.192   6.250  1.00 69.71           O  
+ATOM    268  OD2 ASP A  77      15.725 -37.165   5.681  1.00 68.03           O  
+ATOM    269  N   LYS A  78      11.896 -38.071   2.498  1.00 51.38           N  
+ATOM    270  CA  LYS A  78      11.813 -39.054   1.430  1.00 48.95           C  
+ATOM    271  C   LYS A  78      12.946 -38.825   0.438  1.00 48.42           C  
+ATOM    272  O   LYS A  78      13.213 -37.688   0.039  1.00 60.53           O  
+ATOM    273  CB  LYS A  78      10.460 -38.966   0.726  1.00 52.53           C  
+ATOM    274  CG  LYS A  78      10.237 -40.038  -0.326  1.00 58.24           C  
+ATOM    275  CD  LYS A  78       9.003 -39.740  -1.158  1.00 48.32           C  
+ATOM    276  CE  LYS A  78       9.279 -38.620  -2.144  1.00 45.93           C  
+ATOM    277  NZ  LYS A  78       8.194 -37.605  -2.173  1.00 47.26           N  
+ATOM    278  N   LEU A  79      13.616 -39.907   0.048  1.00 47.25           N  
+ATOM    279  CA  LEU A  79      14.720 -39.848  -0.901  1.00 49.97           C  
+ATOM    280  C   LEU A  79      14.275 -40.156  -2.325  1.00 53.17           C  
+ATOM    281  O   LEU A  79      14.559 -39.387  -3.247  1.00 56.35           O  
+ATOM    282  CB  LEU A  79      15.821 -40.821  -0.472  1.00 50.76           C  
+ATOM    283  CG  LEU A  79      16.355 -40.573   0.937  1.00 53.17           C  
+ATOM    284  CD1 LEU A  79      16.994 -41.828   1.473  1.00 49.68           C  
+ATOM    285  CD2 LEU A  79      17.347 -39.421   0.942  1.00 59.66           C  
+ATOM    286  N   ALA A  80      13.582 -41.275  -2.517  1.00 51.39           N  
+ATOM    287  CA  ALA A  80      13.000 -41.630  -3.801  1.00 52.31           C  
+ATOM    288  C   ALA A  80      11.677 -42.335  -3.536  1.00 51.72           C  
+ATOM    289  O   ALA A  80      11.313 -42.598  -2.386  1.00 51.27           O  
+ATOM    290  CB  ALA A  80      13.954 -42.499  -4.624  1.00 57.93           C  
+ATOM    291  N   ALA A  81      10.954 -42.647  -4.608  1.00 60.24           N  
+ATOM    292  CA  ALA A  81       9.642 -43.256  -4.453  1.00 60.65           C  
+ATOM    293  C   ALA A  81       9.284 -44.030  -5.710  1.00 66.21           C  
+ATOM    294  O   ALA A  81       9.708 -43.677  -6.813  1.00 72.35           O  
+ATOM    295  CB  ALA A  81       8.569 -42.202  -4.159  1.00 57.77           C  
+ATOM    296  N   PHE A  82       8.516 -45.100  -5.525  1.00 66.25           N  
+ATOM    297  CA  PHE A  82       7.903 -45.809  -6.642  1.00 71.64           C  
+ATOM    298  C   PHE A  82       6.408 -45.511  -6.652  1.00 71.13           C  
+ATOM    299  O   PHE A  82       5.708 -45.817  -5.688  1.00 81.83           O  
+ATOM    300  CB  PHE A  82       8.145 -47.319  -6.556  1.00 75.12           C  
+ATOM    301  CG  PHE A  82       7.536 -48.094  -7.696  1.00 79.49           C  
+ATOM    302  CD1 PHE A  82       6.218 -48.524  -7.639  1.00 79.28           C  
+ATOM    303  CD2 PHE A  82       8.279 -48.384  -8.828  1.00 88.71           C  
+ATOM    304  CE1 PHE A  82       5.656 -49.227  -8.686  1.00 83.05           C  
+ATOM    305  CE2 PHE A  82       7.721 -49.090  -9.878  1.00 92.24           C  
+ATOM    306  CZ  PHE A  82       6.408 -49.510  -9.806  1.00 95.21           C  
+ATOM    307  N   PRO A  83       5.910 -44.912  -7.744  1.00 71.29           N  
+ATOM    308  CA  PRO A  83       6.678 -44.495  -8.922  1.00 70.36           C  
+ATOM    309  C   PRO A  83       7.492 -43.240  -8.642  1.00 71.98           C  
+ATOM    310  O   PRO A  83       7.282 -42.610  -7.605  1.00 82.58           O  
+ATOM    311  CB  PRO A  83       5.596 -44.213  -9.974  1.00 69.54           C  
+ATOM    312  CG  PRO A  83       4.303 -44.704  -9.375  1.00 68.09           C  
+ATOM    313  CD  PRO A  83       4.477 -44.626  -7.904  1.00 70.61           C  
+ATOM    314  N   GLU A  84       8.414 -42.904  -9.543  1.00 64.53           N  
+ATOM    315  CA  GLU A  84       9.239 -41.716  -9.375  1.00 61.23           C  
+ATOM    316  C   GLU A  84       8.367 -40.491  -9.137  1.00 64.75           C  
+ATOM    317  O   GLU A  84       7.294 -40.348  -9.728  1.00 85.53           O  
+ATOM    318  CB  GLU A  84      10.111 -41.504 -10.614  1.00 64.82           C  
+ATOM    319  CG  GLU A  84      11.405 -40.753 -10.356  1.00 66.81           C  
+ATOM    320  CD  GLU A  84      12.155 -40.438 -11.636  1.00 69.17           C  
+ATOM    321  OE1 GLU A  84      12.561 -41.389 -12.336  1.00 69.15           O  
+ATOM    322  OE2 GLU A  84      12.338 -39.241 -11.943  1.00 72.53           O  
+ATOM    323  N   ASP A  85       8.823 -39.613  -8.249  1.00 60.23           N  
+ATOM    324  CA  ASP A  85       8.143 -38.349  -7.993  1.00 54.98           C  
+ATOM    325  C   ASP A  85       8.863 -37.264  -8.783  1.00 54.16           C  
+ATOM    326  O   ASP A  85      10.006 -36.913  -8.475  1.00 52.19           O  
+ATOM    327  CB  ASP A  85       8.104 -38.020  -6.503  1.00 54.95           C  
+ATOM    328  CG  ASP A  85       7.132 -36.899  -6.186  1.00 50.65           C  
+ATOM    329  OD1 ASP A  85       6.349 -36.519  -7.084  1.00 77.27           O  
+ATOM    330  OD2 ASP A  85       7.144 -36.400  -5.042  1.00 48.72           O  
+ATOM    331  N   ARG A  86       8.188 -36.741  -9.804  1.00 54.33           N  
+ATOM    332  CA  ARG A  86       8.793 -35.753 -10.687  1.00 52.43           C  
+ATOM    333  C   ARG A  86       8.851 -34.387 -10.024  1.00 49.07           C  
+ATOM    334  O   ARG A  86       9.880 -33.703 -10.072  1.00 65.11           O  
+ATOM    335  CB  ARG A  86       8.002 -35.677 -11.992  1.00 52.42           C  
+ATOM    336  CG  ARG A  86       7.318 -36.981 -12.339  1.00 59.22           C  
+ATOM    337  CD  ARG A  86       8.357 -38.043 -12.626  1.00 66.78           C  
+ATOM    338  NE  ARG A  86       7.766 -39.337 -12.933  1.00 68.44           N  
+ATOM    339  CZ  ARG A  86       8.078 -40.051 -14.006  1.00 81.94           C  
+ATOM    340  NH1 ARG A  86       8.967 -39.587 -14.875  1.00 82.77           N  
+ATOM    341  NH2 ARG A  86       7.503 -41.227 -14.212  1.00 72.90           N  
+ATOM    342  N   SER A  87       7.754 -33.984  -9.394  1.00 46.97           N  
+ATOM    343  CA  SER A  87       7.608 -32.651  -8.833  1.00 42.69           C  
+ATOM    344  C   SER A  87       8.264 -32.494  -7.465  1.00 42.09           C  
+ATOM    345  O   SER A  87       7.963 -31.524  -6.780  1.00 47.89           O  
+ATOM    346  CB  SER A  87       6.122 -32.291  -8.737  1.00 37.56           C  
+ATOM    347  OG  SER A  87       5.386 -33.356  -8.164  1.00 37.64           O  
+ATOM    348  N   GLN A  88       9.146 -33.399  -7.057  1.00 41.63           N  
+ATOM    349  CA  GLN A  88       9.827 -33.262  -5.776  1.00 42.36           C  
+ATOM    350  C   GLN A  88      11.021 -32.323  -5.925  1.00 42.25           C  
+ATOM    351  O   GLN A  88      11.948 -32.620  -6.688  1.00 45.03           O  
+ATOM    352  CB  GLN A  88      10.290 -34.599  -5.233  1.00 45.43           C  
+ATOM    353  CG  GLN A  88      11.444 -34.481  -4.235  1.00 45.43           C  
+ATOM    354  CD  GLN A  88      11.814 -35.793  -3.575  1.00 47.72           C  
+ATOM    355  OE1 GLN A  88      11.236 -36.832  -3.870  1.00 66.51           O  
+ATOM    356  NE2 GLN A  88      12.801 -35.748  -2.678  1.00 45.93           N  
+ATOM    357  N   PRO A  89      11.019 -31.188  -5.230  1.00 36.83           N  
+ATOM    358  CA  PRO A  89      12.173 -30.277  -5.301  1.00 38.58           C  
+ATOM    359  C   PRO A  89      13.473 -30.950  -4.898  1.00 45.28           C  
+ATOM    360  O   PRO A  89      13.512 -31.775  -3.985  1.00 59.87           O  
+ATOM    361  CB  PRO A  89      11.819 -29.160  -4.308  1.00 57.76           C  
+ATOM    362  CG  PRO A  89      10.348 -29.232  -4.176  1.00 40.61           C  
+ATOM    363  CD  PRO A  89       9.858 -30.557  -4.609  1.00 39.27           C  
+ATOM    364  N   GLY A  90      14.548 -30.596  -5.607  1.00 55.64           N  
+ATOM    365  CA  GLY A  90      15.905 -31.017  -5.268  1.00 47.39           C  
+ATOM    366  C   GLY A  90      16.097 -32.496  -5.011  1.00 51.07           C  
+ATOM    367  O   GLY A  90      16.926 -32.873  -4.181  1.00 56.21           O  
+ATOM    368  N   GLN A  91      15.346 -33.334  -5.723  1.00 53.17           N  
+ATOM    369  CA  GLN A  91      15.439 -34.773  -5.534  1.00 59.10           C  
+ATOM    370  C   GLN A  91      16.815 -35.272  -5.950  1.00 63.82           C  
+ATOM    371  O   GLN A  91      17.353 -34.869  -6.985  1.00 64.47           O  
+ATOM    372  CB  GLN A  91      14.346 -35.479  -6.336  1.00 63.68           C  
+ATOM    373  CG  GLN A  91      14.423 -36.997  -6.312  1.00 66.98           C  
+ATOM    374  CD  GLN A  91      14.842 -37.586  -7.654  1.00 91.17           C  
+ATOM    375  OE1 GLN A  91      14.387 -37.148  -8.711  1.00 83.42           O  
+ATOM    376  NE2 GLN A  91      15.721 -38.581  -7.614  1.00 80.32           N  
+ATOM    377  N   ASP A  92      17.383 -36.154  -5.131  1.00 65.67           N  
+ATOM    378  CA  ASP A  92      18.726 -36.667  -5.355  1.00 68.76           C  
+ATOM    379  C   ASP A  92      18.654 -37.842  -6.323  1.00 68.88           C  
+ATOM    380  O   ASP A  92      18.034 -38.867  -6.020  1.00 67.04           O  
+ATOM    381  CB  ASP A  92      19.361 -37.079  -4.029  1.00 66.63           C  
+ATOM    382  CG  ASP A  92      20.868 -37.234  -4.124  1.00 68.98           C  
+ATOM    383  OD1 ASP A  92      21.398 -37.324  -5.251  1.00 68.02           O  
+ATOM    384  OD2 ASP A  92      21.526 -37.267  -3.063  1.00 80.17           O  
+ATOM    385  N   SER A  93      19.302 -37.692  -7.481  1.00 71.82           N  
+ATOM    386  CA  SER A  93      19.198 -38.691  -8.538  1.00 70.81           C  
+ATOM    387  C   SER A  93      19.853 -40.016  -8.170  1.00 69.81           C  
+ATOM    388  O   SER A  93      19.475 -41.052  -8.726  1.00 78.72           O  
+ATOM    389  CB  SER A  93      19.820 -38.153  -9.828  1.00 73.91           C  
+ATOM    390  OG  SER A  93      19.628 -36.754  -9.942  1.00 80.59           O  
+ATOM    391  N   ARG A  94      20.821 -40.010  -7.252  1.00 68.63           N  
+ATOM    392  CA  ARG A  94      21.535 -41.231  -6.895  1.00 66.55           C  
+ATOM    393  C   ARG A  94      20.701 -42.198  -6.067  1.00 67.25           C  
+ATOM    394  O   ARG A  94      21.201 -43.278  -5.731  1.00 69.32           O  
+ATOM    395  CB  ARG A  94      22.808 -40.890  -6.125  1.00 67.23           C  
+ATOM    396  CG  ARG A  94      23.746 -39.930  -6.827  1.00 69.31           C  
+ATOM    397  CD  ARG A  94      24.625 -39.188  -5.825  1.00 72.54           C  
+ATOM    398  NE  ARG A  94      24.963 -39.994  -4.651  1.00 72.66           N  
+ATOM    399  CZ  ARG A  94      24.326 -39.925  -3.484  1.00 70.12           C  
+ATOM    400  NH1 ARG A  94      23.305 -39.093  -3.332  1.00 70.33           N  
+ATOM    401  NH2 ARG A  94      24.701 -40.697  -2.474  1.00 70.15           N  
+ATOM    402  N   PHE A  95      19.470 -41.847  -5.715  1.00 67.83           N  
+ATOM    403  CA  PHE A  95      18.578 -42.727  -4.968  1.00 61.20           C  
+ATOM    404  C   PHE A  95      17.530 -43.259  -5.935  1.00 66.80           C  
+ATOM    405  O   PHE A  95      16.659 -42.</t>
+  </si>
+  <si>
+    <t>5jxe_atom</t>
+  </si>
+  <si>
+    <t>Human PD-1 ectodomain complexed with Pembrolizumab Fab (ATOM records only)</t>
+  </si>
 </sst>
 </file>
 
@@ -2020,10 +2471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2C5880-0163-413C-81AB-E21D9D0875D5}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2091,6 +2542,48 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
